--- a/conf/DwCEventDQ.xlsx
+++ b/conf/DwCEventDQ.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="158">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Event</t>
   </si>
   <si>
-    <t xml:space="preserve">day, month</t>
+    <t xml:space="preserve">dwc:day, dwc:month</t>
   </si>
   <si>
     <t xml:space="preserve">Conformance</t>
@@ -355,7 +355,13 @@
     <t xml:space="preserve">Amended</t>
   </si>
   <si>
-    <t xml:space="preserve">ALA</t>
+    <t xml:space="preserve">ALA, Kurator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event_date_qc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FilteredPush/event_date_qc/blob/master/src/main/java/org/filteredpush/qc/date/DwCEventDQ.java</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;PJM&gt;General problem: Amendments are described in this spreadsheet now as conflations of validations and amendments.  The Description:TestPass here "The event month and day is feasible" is a description of a validation.  The Description: Error here is a description of an amendment.  Given some problematic data (2015-14-11) In a pre-enhancement validation phase, the validation event month/day in range would be expected to be NotCompliant, then the amendment would be proposed (2015-11-14), then a post-enhancment validation phase would report Compliant on the amended data.  Under QA, if amendments are accepted, the amended record would not be filtered out.  Under QC, the amendment would be seen as a proposal to modify the source record in its database of record.  In short, this row (and other rows specifying amendments) need to be split into two, one for a validation, one for an amendment.&lt;/PJM&gt;</t>
@@ -379,19 +385,13 @@
     <t xml:space="preserve">day=2,month=3,year=2013, therefore eventDate=2013-03-02</t>
   </si>
   <si>
-    <t xml:space="preserve">eventDate, verbatimEventDate, year, month, day</t>
+    <t xml:space="preserve">dwc:eventDate, dwc:verbatimEventDate, dwc:year, dwc:month, dwc:day</t>
   </si>
   <si>
     <t xml:space="preserve">Completeness</t>
   </si>
   <si>
-    <t xml:space="preserve">VertNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">event_date_qc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FilteredPush/event_date_qc/blob/master/src/main/java/org/filteredpush/qc/date/DwCEventDQ.java</t>
+    <t xml:space="preserve">VertNet, Kurator</t>
   </si>
   <si>
     <t xml:space="preserve">5618f083-d55a-4ac2-92b5-b9fb227b832f</t>
@@ -415,8 +415,7 @@
     <t xml:space="preserve">eventDate=2010-01-02, year=2001, month=2, day=1</t>
   </si>
   <si>
-    <t xml:space="preserve">eventDate, 
-day, month, year</t>
+    <t xml:space="preserve">dwc:eventDate, dwc:day, dwc:month, dwc:year</t>
   </si>
   <si>
     <t xml:space="preserve">Consistency</t>
@@ -428,7 +427,7 @@
     <t xml:space="preserve">Inconsistent</t>
   </si>
   <si>
-    <t xml:space="preserve">GBIF</t>
+    <t xml:space="preserve">GBIF, Kurator</t>
   </si>
   <si>
     <t xml:space="preserve">NB. Might still be valid as long as D/M/Y is within the range.</t>
@@ -458,127 +457,12 @@
     <t xml:space="preserve">day=32</t>
   </si>
   <si>
-    <t xml:space="preserve">day</t>
+    <t xml:space="preserve">dwc:day</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid</t>
   </si>
   <si>
-    <t xml:space="preserve">04b2c8f3-c71b-4e95-8e43-f70374c5fb92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPTH_OUT_OF_RANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum depth is less than zero (0) or maximum depth is greater than 11,000 meters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum depth is greater than or equal to zero (0) and maximum depth is less than 11,000 meters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumDepthInMeters&lt;0 or maximumDepthInMeters&gt;11000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximumDepthInMeters=19380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimumDepthInMeters,
-maximumDepthInMeters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Likeliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALA, GBIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eaaa5c54-87e4-4216-9bff-19e514b02347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-GEOREFERENCE_VERIFICATION_STATUS_SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georeferenceVerificationStatus was set to "requires verification"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georeferenceVerificationStatus was not set to "requires verification"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georeferenceVerificationStatus="requires verification" where georeferenceVerificationStatus=NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georeferenceVerificationStatus is NULL, therefore georeferenceVerificationStatus="requires verification"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">georeferenceVerificationStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unlikely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Lee&gt;I thought this was against our policy?&lt;/Lee&gt; &lt;AC&gt;Strickly yes- but I think it is one we should keeep.&lt;/AC&gt;&lt;Lee&gt;I would suspect that this test will pickup a large percentage of records, and loose it power?&lt;/Lee&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d6b77197-d301-4b01-8ea4-09f18c1cdd20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-OCCURRENCE_INTERPRETED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwc:establishmentMeans standardized using a vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dwc:establishmentMeans mathced to vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishmentMeans=lookup(establishmentMeans, lookupTable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishmentMeans="cultivated" becomes establishmentMeans="managed"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishmentMeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;JW&gt;Community lookup table (e.g., https://github.com/tucotuco/DwCVocabs/blob/master/vocabs/establishmentMeans.txt)&lt;/JW&gt; &lt;AC&gt; See also the validation at Line 56 - This should be placed after Line 55&lt;/AC&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e6173957-380c-436d-b4c3-7914c432515e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-OCCURRENCE_UNCERTAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term in dwc:establishmentMeans is not unambiguously interpretable against vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term in dwc:establishmentMeans was matched to vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lookup(establishmentMeans, lookupTable) is NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">establishmentMeans="fly in"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;JW&gt;Community lookup table (e.g., https://github.com/tucotuco/DwCVocabs/blob/master/vocabs/establishmentMeans.txt)&lt;/JW&gt; &lt;AC&gt; See also the validation at Line 55&lt;/AC&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">6a</t>
   </si>
   <si>
@@ -603,10 +487,7 @@
     <t xml:space="preserve">dcterms:modified</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul Morris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FilteredPush/event_date_qc/blob/master/src/main/java/org/filteredpush/qc/date/DwCEventDQ.java  Unit tests for underlying primitive methods at: https://github.com/FilteredPush/event_date_qc/blob/master/src/test/java/org/filteredpush/qc/date/DateUtilsTest.java</t>
+    <t xml:space="preserve">Paul Morris, Kurator</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;PJM&gt;I'm not seeing the complementary dwc:eventDate amended amendment, just tests on atomic fields of the Event class&lt;/PJM&gt;</t>
@@ -633,38 +514,202 @@
     <t xml:space="preserve">&lt;PJM&gt;I'm not seeing the complementary dwc:eventDate VALID validation, just tests on atomic fields of the Event class&lt;/PJM&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">2eb62922-a8c6-4be7-aeef-56e1ca64c135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-IDENTIFICATION_QUALIFIER_DETECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon name fields (scientificName, genus, subgenus, specificEpithet) contain an identification qualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon name fields (scientificName, genus, subgenus, specificEpithet) do not contain an identification qualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for field in name fields: if field contains one of listOfIdentificationQualifiers: return True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientificName="Thomomys cf. bottae"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scientificName, genus, subgenus, specificEpithet, infraspecificEpithet</t>
+    <t xml:space="preserve">5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31d463b4-2a1c-4b90-b6c7-73459d1bad6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_YEAR_INCOMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event date resolution only to year (no Event month or day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event date resolution has year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventDate resolution to year only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year=1999, month is NULL, day is NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventDate</t>
   </si>
   <si>
     <t xml:space="preserve">Resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;AC&gt;&gt;SHOULD FOLLOW LINE 18 &lt;/AC&gt;&lt;Lee&gt;Needs vocab lookup then?&lt;/Lee&gt;....John says lookup ok...as next line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB. Identification qualifiers include: 'cf.', 'aff.', '&gt;', ' X ', '?', 'sp.', ssp.'</t>
+    <t xml:space="preserve">Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;PJM&gt;Alex has also proposed a generalization of this and the next two tests: a measure of the eventDateDuration in seconds.  A consumer of data can then set an arbitrary adequate precision for their needs, and set a validation on that measure.  Good to add Alex's proposed measure: EventDateDurationSeconds here.  (there is a Kurator implementation in the filteredpush:event_date_qc library, probably also an implementation in iDigBio (Alex?).  There's also the complexity of how long is a julian year in seconds, and the compliance of a date range of two months that spans a year boundary...&lt;/PJM&gt;  &lt;PJM&gt;event_date_qc library has validations "EVENTDATE_PRECISON_JULIAN_YEAR_OR_BETTER", "EVENTDATE_PRECISON_YEAR_OR_BETTER", and the measure "EVENTDATE_PRECISON_YEAR_OR_BETTER"&lt;/PJM&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0753f69-08c1-45f5-a5ca-48d24e76d813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_DURATION_SECONDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No value provided for eventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure the duration of an event date in seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For values of dwc:eventDate, calculate the duration in seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:eventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0a59e03f-ebb5-4df3-a802-2e444de525b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_COMPLETENESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value for eventDate is null or empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The eventDate contains a value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For values of dwc:eventDate, check is not empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da63f836-1fc6-4e96-a612-fa76678cfd6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_AND_VERBATIM_CONSISTENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to see if the eventDate and verbatimEventDate are not consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The eventDate and verbatimEventDate are consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a dwc:eventDate is not empty and the verbatimEventDate is not empty compare the value of dwc:eventDate with that of dwc:verbatimEventDate, and assert Compliant if the two represent the same data or date range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:eventDate, dwc:verbatimEventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cdd4f44-e7ed-4484-a1b8-4e6407a491e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_FROM_PARTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to extract a date from verbatim event date and/or atomic fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populated eventDate from the verbatim and other atomic parts (day, month, year, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a dwc:eventDate is empty and the verbatimEventDate is not empty fill in dwc:eventDate based on value from dwc:verbatimEventDate, dwc:year dwc:month, dwc:day, dwc:start/endDayOfYear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:eventDate, dwc:verbatimEventDate, dwc:startDayOfYear, dwc:endDayOfYear, dwc:year, dwc:month, dwc:day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4ddf9bc-cd10-46cc-b307-d6c7233a240a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSTREAM_EVENTDATE_FILLED_IN_FROM_START_END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to extract a date from startDate and endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populated the eventDate from non-Darwin Core start date and end date terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a dwc:eventDate is empty and an event date can be inferred from start date and end date, fill in dwc:eventDate based on the values in the start and end dates.  Will not propose a change if dwc:eventDate contains a value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:eventDate, dwc:startDate, dwc:endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134c7b4f-1261-41ec-acb5-69cd4bc8556f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_FORMAT_CORRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The eventDate contains a correctly formatted date, does not contain a value or we were unable to extract a date from the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed a format correction for the value of eventDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check dwc:eventDate to see if it is empty or contains a valid date value. If it contains a value that is not a valid date, propose a properly formatted eventDate as an amendment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39bb2280-1215-447b-9221-fd13bc990641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_IDENTIFIED_FORMAT_AMENDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dateIdentified contains a correctly formatted date, does not cotain a value or we were unable to extract a date from the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propose a format correction for a date identified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check dwc:dateIdentified to see if it is empty or contains a valid date value. If it contains a value that is not a valid date, propose a properly formatted dwc:dateIdentified as an amendment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:dateIdentified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd00e6be-45e4-4ced-9f3d-5cde30b21b69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENT_DATE_PRECISON_JULIAN_YEAR_OR_BETTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided value for eventDate has a duration more than one Julian year of 365.25 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided event date has a duration less than or equal to a standard astronomical Julian year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant if event date has a duration equal to or less than 31557600 seconds, otherwise not compliant. Internal prerequisites not met if eventDate is empty or not valid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01c6dafa-0886-4b7e-9881-2c3018c98bdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH_INVALID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided value for month is not an integer in the range 1 to 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided value for month is an integer in the range 1 to 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliant if month is an integer in the range 1 to 12 inclusive, otherwise not compliant. Internal prerequisites not met if month is empty or an integer cannot be parsed from month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwc:month</t>
   </si>
 </sst>
 </file>
@@ -675,11 +720,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -732,16 +778,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,7 +831,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE8B2"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -810,20 +848,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFD965"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -900,6 +926,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -933,6 +963,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,6 +1018,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -996,12 +1034,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1012,52 +1046,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1085,19 +1111,19 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB7E1CD"/>
+      <rgbColor rgb="FFEAD1DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF6D9EEB"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1155CC"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1105,7 +1131,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFCE8B2"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1137,872 +1163,1083 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="78.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="125.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>30009</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="20" t="n">
+      <c r="U2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="n">
         <v>157</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="V3" s="25"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="15" t="s">
+      <c r="L6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="X7" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="15" t="s">
+      <c r="N8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
+      <c r="R12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J13" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="M16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="N16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="11" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I17" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="M17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="N17" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <v>98</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="237.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
-        <v>166</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
-        <v>170</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="158.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
-        <v>169</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="R17" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="V10" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
-        <v>167</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="W12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="X12" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
+      <c r="T17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U3" r:id="rId2" display="https://github.com/FilteredPush/event_date_qc/blob/master/src/main/java/org/filteredpush/qc/date/DwCEventDQ.java"/>
-    <hyperlink ref="U5" r:id="rId3" display="https://github.com/FilteredPush/event_date_qc/blob/master/src/main/java/org/filteredpush/qc/date/DwCEventDQ.java"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2010,6 +2247,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>